--- a/cases/goodhostpital2021/维度导向库.xlsx
+++ b/cases/goodhostpital2021/维度导向库.xlsx
@@ -399,13 +399,13 @@
         <v>二级指标</v>
       </c>
       <c r="C1" t="str">
+        <v>一级指标</v>
+      </c>
+      <c r="D1" t="str">
+        <v>指标导向</v>
+      </c>
+      <c r="E1" t="str">
         <v>计量单位</v>
-      </c>
-      <c r="D1" t="str">
-        <v>一级指标</v>
-      </c>
-      <c r="E1" t="str">
-        <v>指标导向</v>
       </c>
       <c r="F1" t="str">
         <v>指标来源</v>
@@ -427,10 +427,10 @@
       <c r="B2" t="str">
         <v>医保价值</v>
       </c>
+      <c r="C2" t="str">
+        <v>医疗质量</v>
+      </c>
       <c r="D2" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E2" t="str">
         <v>高优</v>
       </c>
       <c r="F2" t="str">
@@ -453,10 +453,10 @@
       <c r="B3" t="str">
         <v>医保价值</v>
       </c>
+      <c r="C3" t="str">
+        <v>医疗质量</v>
+      </c>
       <c r="D3" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E3" t="str">
         <v>高优</v>
       </c>
       <c r="F3" t="str">
@@ -479,10 +479,10 @@
       <c r="B4" t="str">
         <v>医保价值</v>
       </c>
+      <c r="C4" t="str">
+        <v>医疗质量</v>
+      </c>
       <c r="D4" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E4" t="str">
         <v>无标准</v>
       </c>
       <c r="F4" t="str">
@@ -506,13 +506,13 @@
         <v>质量安全</v>
       </c>
       <c r="C5" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D5" t="str">
-        <v>医疗质量</v>
+        <v>逐步降低</v>
       </c>
       <c r="E5" t="str">
-        <v>逐步降低</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F5" t="str">
         <v>病案首页</v>
@@ -535,13 +535,13 @@
         <v>收支结构</v>
       </c>
       <c r="C6" t="str">
+        <v>运营效率</v>
+      </c>
+      <c r="D6" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="E6" t="str">
         <v>吨标煤/万元</v>
-      </c>
-      <c r="D6" t="str">
-        <v>运营效率</v>
-      </c>
-      <c r="E6" t="str">
-        <v>逐步降低</v>
       </c>
       <c r="F6" t="str">
         <v>财务年报表</v>
@@ -564,13 +564,13 @@
         <v>功能定位</v>
       </c>
       <c r="C7" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="D7" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E7" t="str">
         <v>人次</v>
-      </c>
-      <c r="D7" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E7" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F7" t="str">
         <v>医院填报</v>
@@ -593,13 +593,13 @@
         <v>人员结构</v>
       </c>
       <c r="C8" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D8" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E8" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F8" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
@@ -622,13 +622,13 @@
         <v>人员结构</v>
       </c>
       <c r="C9" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D9" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E9" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F9" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
@@ -651,13 +651,13 @@
         <v>收支结构</v>
       </c>
       <c r="C10" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D10" t="str">
-        <v>运营效率</v>
+        <v>逐步提高</v>
       </c>
       <c r="E10" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F10" t="str">
         <v>财务年报表</v>
@@ -680,13 +680,13 @@
         <v>收支结构</v>
       </c>
       <c r="C11" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D11" t="str">
-        <v>运营效率</v>
+        <v>逐步提高</v>
       </c>
       <c r="E11" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F11" t="str">
         <v>财务年报表</v>
@@ -709,13 +709,13 @@
         <v>收支结构</v>
       </c>
       <c r="C12" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D12" t="str">
-        <v>运营效率</v>
+        <v>逐步提高</v>
       </c>
       <c r="E12" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F12" t="str">
         <v>财务年报表</v>
@@ -738,13 +738,13 @@
         <v>学科建设</v>
       </c>
       <c r="C13" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D13" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E13" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F13" t="str">
         <v>医院填报</v>
@@ -767,13 +767,13 @@
         <v>功能定位</v>
       </c>
       <c r="C14" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D14" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E14" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F14" t="str">
         <v>中医病案首页</v>
@@ -796,13 +796,13 @@
         <v>质量安全</v>
       </c>
       <c r="C15" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D15" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E15" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F15" t="str">
         <v>医院填报</v>
@@ -825,13 +825,13 @@
         <v>质量安全</v>
       </c>
       <c r="C16" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D16" t="str">
-        <v>医疗质量</v>
+        <v>逐步降低</v>
       </c>
       <c r="E16" t="str">
-        <v>逐步降低</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F16" t="str">
         <v>病案首页</v>
@@ -854,13 +854,13 @@
         <v>功能定位</v>
       </c>
       <c r="C17" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="D17" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E17" t="str">
         <v>人次</v>
-      </c>
-      <c r="D17" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E17" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F17" t="str">
         <v>医院填报</v>
@@ -883,13 +883,13 @@
         <v>收支结构</v>
       </c>
       <c r="C18" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D18" t="str">
-        <v>运营效率</v>
+        <v>逐步提高</v>
       </c>
       <c r="E18" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F18" t="str">
         <v>财务年报表、医院填报</v>
@@ -912,13 +912,13 @@
         <v>合理用药</v>
       </c>
       <c r="C19" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D19" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E19" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F19" t="str">
         <v>医院填报</v>
@@ -941,13 +941,13 @@
         <v>功能定位</v>
       </c>
       <c r="C20" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D20" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E20" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F20" t="str">
         <v>中医病案首页</v>
@@ -970,13 +970,13 @@
         <v>费用控制</v>
       </c>
       <c r="C21" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D21" t="str">
-        <v>运营效率</v>
+        <v>逐步降低</v>
       </c>
       <c r="E21" t="str">
-        <v>逐步降低</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F21" t="str">
         <v>财务年报表</v>
@@ -999,13 +999,13 @@
         <v>费用控制</v>
       </c>
       <c r="C22" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D22" t="str">
-        <v>运营效率</v>
+        <v>逐步降低</v>
       </c>
       <c r="E22" t="str">
-        <v>逐步降低</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F22" t="str">
         <v>财务年报表</v>
@@ -1028,13 +1028,13 @@
         <v>人员结构</v>
       </c>
       <c r="C23" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D23" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E23" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F23" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
@@ -1057,13 +1057,13 @@
         <v>功能定位</v>
       </c>
       <c r="C24" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D24" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E24" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F24" t="str">
         <v>病案首页</v>
@@ -1086,13 +1086,13 @@
         <v>功能定位</v>
       </c>
       <c r="C25" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D25" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E25" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F25" t="str">
         <v>中医病案首页</v>
@@ -1115,13 +1115,13 @@
         <v>功能定位</v>
       </c>
       <c r="C26" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D26" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E26" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F26" t="str">
         <v>中医病案首页</v>
@@ -1144,13 +1144,13 @@
         <v>功能定位</v>
       </c>
       <c r="C27" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D27" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E27" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F27" t="str">
         <v>病案首页</v>
@@ -1173,13 +1173,13 @@
         <v>功能定位</v>
       </c>
       <c r="C28" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D28" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E28" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F28" t="str">
         <v>病案首页</v>
@@ -1202,13 +1202,13 @@
         <v>功能定位</v>
       </c>
       <c r="C29" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D29" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E29" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F29" t="str">
         <v>病案首页</v>
@@ -1231,13 +1231,13 @@
         <v>人员结构</v>
       </c>
       <c r="C30" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="D30" t="str">
+        <v>有标准</v>
+      </c>
+      <c r="E30" t="str">
         <v>比值（1:X）</v>
-      </c>
-      <c r="D30" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="E30" t="str">
-        <v>有标准</v>
       </c>
       <c r="F30" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
@@ -1260,13 +1260,13 @@
         <v>费用控制</v>
       </c>
       <c r="C31" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D31" t="str">
-        <v>运营效率</v>
+        <v>低优</v>
       </c>
       <c r="E31" t="str">
-        <v>低优</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F31" t="str">
         <v>财务年报表</v>
@@ -1289,13 +1289,13 @@
         <v>医服收入</v>
       </c>
       <c r="C32" t="str">
-        <v>百分比（%）</v>
+        <v>满意度评价</v>
       </c>
       <c r="D32" t="str">
-        <v>满意度评价</v>
+        <v>高优</v>
       </c>
       <c r="E32" t="str">
-        <v>高优</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F32" t="str">
         <v>自算</v>
@@ -1318,13 +1318,13 @@
         <v>医服收入</v>
       </c>
       <c r="C33" t="str">
-        <v>百分比（%）</v>
+        <v>满意度评价</v>
       </c>
       <c r="D33" t="str">
-        <v>满意度评价</v>
+        <v>高优</v>
       </c>
       <c r="E33" t="str">
-        <v>高优</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F33" t="str">
         <v>自算</v>
@@ -1347,13 +1347,13 @@
         <v>收支结构</v>
       </c>
       <c r="C34" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D34" t="str">
-        <v>运营效率</v>
+        <v>逐步提高</v>
       </c>
       <c r="E34" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F34" t="str">
         <v>财务年报表</v>
@@ -1376,13 +1376,13 @@
         <v>收支结构</v>
       </c>
       <c r="C35" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D35" t="str">
-        <v>运营效率</v>
+        <v>逐步提高</v>
       </c>
       <c r="E35" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F35" t="str">
         <v>财务年报表、医院填报</v>
@@ -1405,13 +1405,13 @@
         <v>收支结构</v>
       </c>
       <c r="C36" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D36" t="str">
-        <v>运营效率</v>
+        <v>无标准</v>
       </c>
       <c r="E36" t="str">
-        <v>无标准</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F36" t="str">
         <v>财务年报表</v>
@@ -1434,13 +1434,13 @@
         <v>人才培养</v>
       </c>
       <c r="C37" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D37" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E37" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F37" t="str">
         <v>国家卫生健康委</v>
@@ -1463,13 +1463,13 @@
         <v>人才培养</v>
       </c>
       <c r="C38" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="D38" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E38" t="str">
         <v>百分比（%）、人、篇、比值（1:X）</v>
-      </c>
-      <c r="D38" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="E38" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F38" t="str">
         <v>医院填报</v>
@@ -1492,13 +1492,13 @@
         <v>人才培养</v>
       </c>
       <c r="C39" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D39" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E39" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F39" t="str">
         <v>医院填报</v>
@@ -1520,10 +1520,10 @@
       <c r="B40" t="str">
         <v>地位影响</v>
       </c>
+      <c r="C40" t="str">
+        <v>满意度评价</v>
+      </c>
       <c r="D40" t="str">
-        <v>满意度评价</v>
-      </c>
-      <c r="E40" t="str">
         <v>高优</v>
       </c>
       <c r="F40" t="str">
@@ -1538,13 +1538,13 @@
         <v>合理用药</v>
       </c>
       <c r="C41" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D41" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E41" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F41" t="str">
         <v>医院填报</v>
@@ -1567,13 +1567,13 @@
         <v>合理用药</v>
       </c>
       <c r="C42" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D42" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E42" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F42" t="str">
         <v>省级招采平台</v>
@@ -1596,13 +1596,13 @@
         <v>合理用药</v>
       </c>
       <c r="C43" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D43" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E43" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F43" t="str">
         <v>省级药品集中采购平台</v>
@@ -1624,10 +1624,10 @@
       <c r="B44" t="str">
         <v>地位影响</v>
       </c>
+      <c r="C44" t="str">
+        <v>满意度评价</v>
+      </c>
       <c r="D44" t="str">
-        <v>满意度评价</v>
-      </c>
-      <c r="E44" t="str">
         <v>高优</v>
       </c>
       <c r="F44" t="str">
@@ -1642,13 +1642,13 @@
         <v>服务流程</v>
       </c>
       <c r="C45" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="D45" t="str">
+        <v>低优</v>
+      </c>
+      <c r="E45" t="str">
         <v>天</v>
-      </c>
-      <c r="D45" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E45" t="str">
-        <v>低优</v>
       </c>
       <c r="F45" t="str">
         <v>病案首页</v>
@@ -1671,13 +1671,13 @@
         <v>质量安全</v>
       </c>
       <c r="C46" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D46" t="str">
-        <v>医疗质量</v>
+        <v>逐步降低</v>
       </c>
       <c r="E46" t="str">
-        <v>逐步降低</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F46" t="str">
         <v>病案首页</v>
@@ -1700,13 +1700,13 @@
         <v>合理用药</v>
       </c>
       <c r="C47" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="D47" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="E47" t="str">
         <v>DDD</v>
-      </c>
-      <c r="D47" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E47" t="str">
-        <v>逐步降低</v>
       </c>
       <c r="F47" t="str">
         <v>医院填报</v>
@@ -1729,13 +1729,13 @@
         <v>人员结构</v>
       </c>
       <c r="C48" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D48" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E48" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F48" t="str">
         <v>医院填报</v>
@@ -1758,13 +1758,13 @@
         <v>费用控制</v>
       </c>
       <c r="C49" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D49" t="str">
-        <v>运营效率</v>
+        <v>逐步降低</v>
       </c>
       <c r="E49" t="str">
-        <v>逐步降低</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F49" t="str">
         <v>财务年报表</v>
@@ -1787,13 +1787,13 @@
         <v>费用控制</v>
       </c>
       <c r="C50" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D50" t="str">
-        <v>运营效率</v>
+        <v>逐步降低</v>
       </c>
       <c r="E50" t="str">
-        <v>逐步降低</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F50" t="str">
         <v>财务年报表</v>
@@ -1816,13 +1816,13 @@
         <v>学科建设</v>
       </c>
       <c r="C51" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="D51" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E51" t="str">
         <v>元</v>
-      </c>
-      <c r="D51" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="E51" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F51" t="str">
         <v>医院填报</v>
@@ -1845,13 +1845,13 @@
         <v>学科建设</v>
       </c>
       <c r="C52" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="D52" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E52" t="str">
         <v>元</v>
-      </c>
-      <c r="D52" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="E52" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F52" t="str">
         <v>医院填报</v>
@@ -1874,13 +1874,13 @@
         <v>学科建设</v>
       </c>
       <c r="C53" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="D53" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E53" t="str">
         <v>元</v>
-      </c>
-      <c r="D53" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="E53" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F53" t="str">
         <v>医院填报</v>
@@ -1903,13 +1903,13 @@
         <v>学科建设</v>
       </c>
       <c r="C54" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="D54" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E54" t="str">
         <v>元</v>
-      </c>
-      <c r="D54" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="E54" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F54" t="str">
         <v>医院填报</v>
@@ -1932,13 +1932,13 @@
         <v>学科建设</v>
       </c>
       <c r="C55" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="D55" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E55" t="str">
         <v>元</v>
-      </c>
-      <c r="D55" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="E55" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F55" t="str">
         <v>医院填报</v>
@@ -1961,13 +1961,13 @@
         <v>学科建设</v>
       </c>
       <c r="C56" t="str">
+        <v>持续发展</v>
+      </c>
+      <c r="D56" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E56" t="str">
         <v>元</v>
-      </c>
-      <c r="D56" t="str">
-        <v>持续发展</v>
-      </c>
-      <c r="E56" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F56" t="str">
         <v>医院填报</v>
@@ -1990,13 +1990,13 @@
         <v>合理用药</v>
       </c>
       <c r="C57" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D57" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E57" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F57" t="str">
         <v>医院填报</v>
@@ -2019,13 +2019,13 @@
         <v>合理用药</v>
       </c>
       <c r="C58" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D58" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E58" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F58" t="str">
         <v>医院填报</v>
@@ -2048,13 +2048,13 @@
         <v>质量安全</v>
       </c>
       <c r="C59" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D59" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E59" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F59" t="str">
         <v>医院填报</v>
@@ -2077,13 +2077,13 @@
         <v>服务流程</v>
       </c>
       <c r="C60" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="D60" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E60" t="str">
         <v>级别</v>
-      </c>
-      <c r="D60" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E60" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F60" t="str">
         <v>国家卫生健康委</v>
@@ -2106,13 +2106,13 @@
         <v>人员结构</v>
       </c>
       <c r="C61" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D61" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E61" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F61" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
@@ -2135,13 +2135,13 @@
         <v>服务流程</v>
       </c>
       <c r="C62" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D62" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E62" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F62" t="str">
         <v>省级卫生健康委</v>
@@ -2164,13 +2164,13 @@
         <v>服务流程</v>
       </c>
       <c r="C63" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D63" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E63" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F63" t="str">
         <v>省级卫生健康委</v>
@@ -2192,10 +2192,10 @@
       <c r="B64" t="str">
         <v>地位影响</v>
       </c>
+      <c r="C64" t="str">
+        <v>满意度评价</v>
+      </c>
       <c r="D64" t="str">
-        <v>满意度评价</v>
-      </c>
-      <c r="E64" t="str">
         <v>高优</v>
       </c>
       <c r="F64" t="str">
@@ -2210,13 +2210,13 @@
         <v>收支结构</v>
       </c>
       <c r="C65" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D65" t="str">
-        <v>运营效率</v>
+        <v>低优</v>
       </c>
       <c r="E65" t="str">
-        <v>低优</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F65" t="str">
         <v>财务年报表</v>
@@ -2239,13 +2239,13 @@
         <v>质量安全</v>
       </c>
       <c r="C66" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D66" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E66" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F66" t="str">
         <v>国家卫生健康委</v>
@@ -2267,10 +2267,10 @@
       <c r="B67" t="str">
         <v>地位影响</v>
       </c>
+      <c r="C67" t="str">
+        <v>满意度评价</v>
+      </c>
       <c r="D67" t="str">
-        <v>满意度评价</v>
-      </c>
-      <c r="E67" t="str">
         <v>高优</v>
       </c>
       <c r="F67" t="str">
@@ -2285,13 +2285,13 @@
         <v>合理用药</v>
       </c>
       <c r="C68" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D68" t="str">
-        <v>医疗质量</v>
+        <v>低优</v>
       </c>
       <c r="E68" t="str">
-        <v>低优</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F68" t="str">
         <v>医院填报</v>
@@ -2314,13 +2314,13 @@
         <v>合理用药</v>
       </c>
       <c r="C69" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D69" t="str">
-        <v>医疗质量</v>
+        <v>低优</v>
       </c>
       <c r="E69" t="str">
-        <v>低优</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F69" t="str">
         <v>医院填报</v>
@@ -2343,13 +2343,13 @@
         <v>人员结构</v>
       </c>
       <c r="C70" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D70" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E70" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F70" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>
@@ -2372,13 +2372,13 @@
         <v>功能定位</v>
       </c>
       <c r="C71" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="D71" t="str">
+        <v>逐步提高</v>
+      </c>
+      <c r="E71" t="str">
         <v>人次</v>
-      </c>
-      <c r="D71" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E71" t="str">
-        <v>逐步提高</v>
       </c>
       <c r="F71" t="str">
         <v>医院填报</v>
@@ -2401,13 +2401,13 @@
         <v>收支结构</v>
       </c>
       <c r="C72" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D72" t="str">
-        <v>运营效率</v>
+        <v>逐步提高</v>
       </c>
       <c r="E72" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F72" t="str">
         <v>财务年报表、医院填报</v>
@@ -2430,13 +2430,13 @@
         <v>功能定位</v>
       </c>
       <c r="C73" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D73" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E73" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F73" t="str">
         <v>医院填报</v>
@@ -2459,13 +2459,13 @@
         <v>功能定位</v>
       </c>
       <c r="C74" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D74" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E74" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F74" t="str">
         <v>医院填报</v>
@@ -2488,13 +2488,13 @@
         <v>功能定位</v>
       </c>
       <c r="C75" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D75" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E75" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F75" t="str">
         <v>医院填报</v>
@@ -2517,13 +2517,13 @@
         <v>合理用药</v>
       </c>
       <c r="C76" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D76" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E76" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F76" t="str">
         <v>医院填报</v>
@@ -2546,13 +2546,13 @@
         <v>服务流程</v>
       </c>
       <c r="C77" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D77" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E77" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F77" t="str">
         <v>医院填报</v>
@@ -2575,13 +2575,13 @@
         <v>服务流程</v>
       </c>
       <c r="C78" t="str">
+        <v>医疗质量</v>
+      </c>
+      <c r="D78" t="str">
+        <v>逐步降低</v>
+      </c>
+      <c r="E78" t="str">
         <v>分钟</v>
-      </c>
-      <c r="D78" t="str">
-        <v>医疗质量</v>
-      </c>
-      <c r="E78" t="str">
-        <v>逐步降低</v>
       </c>
       <c r="F78" t="str">
         <v>医院填报</v>
@@ -2604,13 +2604,13 @@
         <v>功能定位</v>
       </c>
       <c r="C79" t="str">
-        <v>百分比（%）</v>
+        <v>医疗质量</v>
       </c>
       <c r="D79" t="str">
-        <v>医疗质量</v>
+        <v>逐步提高</v>
       </c>
       <c r="E79" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F79" t="str">
         <v>医院填报</v>
@@ -2633,13 +2633,13 @@
         <v>费用控制</v>
       </c>
       <c r="C80" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D80" t="str">
-        <v>运营效率</v>
+        <v>逐步降低</v>
       </c>
       <c r="E80" t="str">
-        <v>逐步降低</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F80" t="str">
         <v>财务年报表</v>
@@ -2662,13 +2662,13 @@
         <v>费用控制</v>
       </c>
       <c r="C81" t="str">
-        <v>百分比（%）</v>
+        <v>运营效率</v>
       </c>
       <c r="D81" t="str">
-        <v>运营效率</v>
+        <v>逐步降低</v>
       </c>
       <c r="E81" t="str">
-        <v>逐步降低</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F81" t="str">
         <v>财务年报表</v>
@@ -2690,10 +2690,10 @@
       <c r="B82" t="str">
         <v>地位影响</v>
       </c>
+      <c r="C82" t="str">
+        <v>满意度评价</v>
+      </c>
       <c r="D82" t="str">
-        <v>满意度评价</v>
-      </c>
-      <c r="E82" t="str">
         <v>低优</v>
       </c>
       <c r="F82" t="str">
@@ -2708,13 +2708,13 @@
         <v>人员结构</v>
       </c>
       <c r="C83" t="str">
-        <v>百分比（%）</v>
+        <v>持续发展</v>
       </c>
       <c r="D83" t="str">
-        <v>持续发展</v>
+        <v>逐步提高</v>
       </c>
       <c r="E83" t="str">
-        <v>逐步提高</v>
+        <v>百分比（%）</v>
       </c>
       <c r="F83" t="str">
         <v>国家医疗机构、医师、护士电子化注册系统</v>

--- a/cases/goodhostpital2021/维度导向库.xlsx
+++ b/cases/goodhostpital2021/维度导向库.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,27 +22,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="141">
+  <si>
+    <t xml:space="preserve">数据名</t>
+  </si>
+  <si>
+    <t xml:space="preserve">一级权重</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医疗质量</t>
+  </si>
+  <si>
+    <t xml:space="preserve">运营效率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">持续发展</t>
+  </si>
+  <si>
+    <t xml:space="preserve">满意度评价</t>
+  </si>
+  <si>
+    <t xml:space="preserve">二级权重</t>
+  </si>
   <si>
     <t xml:space="preserve">一级指标</t>
   </si>
   <si>
-    <t xml:space="preserve">医疗质量</t>
-  </si>
-  <si>
-    <t xml:space="preserve">持续发展</t>
-  </si>
-  <si>
-    <t xml:space="preserve">满意度评价</t>
-  </si>
-  <si>
-    <t xml:space="preserve">运营效率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">数据名</t>
-  </si>
-  <si>
-    <t xml:space="preserve">权重</t>
+    <t xml:space="preserve">功能定位</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医保价值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">合理用药</t>
+  </si>
+  <si>
+    <t xml:space="preserve">服务流程</t>
+  </si>
+  <si>
+    <t xml:space="preserve">质量安全</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人员结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">人才培养</t>
+  </si>
+  <si>
+    <t xml:space="preserve">学科建设</t>
+  </si>
+  <si>
+    <t xml:space="preserve">医服收入</t>
+  </si>
+  <si>
+    <t xml:space="preserve">地位影响</t>
+  </si>
+  <si>
+    <t xml:space="preserve">收支结构</t>
+  </si>
+  <si>
+    <t xml:space="preserve">费用控制</t>
   </si>
   <si>
     <t xml:space="preserve">三级权重</t>
@@ -85,12 +124,10 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">值</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">医保价值</t>
   </si>
   <si>
     <t xml:space="preserve">高优</t>
@@ -118,6 +155,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">当量</t>
     </r>
@@ -137,6 +175,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组数</t>
     </r>
@@ -161,6 +200,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">组数</t>
     </r>
@@ -185,12 +225,10 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">类切口手术部位感染率</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">质量安全</t>
   </si>
   <si>
     <t xml:space="preserve">逐步降低</t>
@@ -202,6 +240,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">百分比（</t>
     </r>
@@ -221,6 +260,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -233,9 +273,6 @@
   </si>
   <si>
     <t xml:space="preserve">万元收入能耗占比</t>
-  </si>
-  <si>
-    <t xml:space="preserve">收支结构</t>
   </si>
   <si>
     <r>
@@ -244,6 +281,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">吨标煤</t>
     </r>
@@ -263,6 +301,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">万元</t>
     </r>
@@ -274,9 +313,6 @@
     <t xml:space="preserve">下转患者人次数</t>
   </si>
   <si>
-    <t xml:space="preserve">功能定位</t>
-  </si>
-  <si>
     <t xml:space="preserve">逐步提高</t>
   </si>
   <si>
@@ -292,9 +328,6 @@
     <t xml:space="preserve">中医医师占比</t>
   </si>
   <si>
-    <t xml:space="preserve">人员结构</t>
-  </si>
-  <si>
     <t xml:space="preserve">国家医疗机构、医师、护士电子化注册系统</t>
   </si>
   <si>
@@ -313,9 +346,6 @@
     <t xml:space="preserve">人才培养经费投入占比</t>
   </si>
   <si>
-    <t xml:space="preserve">学科建设</t>
-  </si>
-  <si>
     <t xml:space="preserve">以中医为主治疗的出院患者比例</t>
   </si>
   <si>
@@ -340,16 +370,10 @@
     <t xml:space="preserve">住院患者基本药物使用率</t>
   </si>
   <si>
-    <t xml:space="preserve">合理用药</t>
-  </si>
-  <si>
     <t xml:space="preserve">住院手术患者围手术期中医治疗比例</t>
   </si>
   <si>
     <t xml:space="preserve">住院次均药品费用增幅</t>
-  </si>
-  <si>
-    <t xml:space="preserve">费用控制</t>
   </si>
   <si>
     <t xml:space="preserve">住院次均费用增幅</t>
@@ -388,6 +412,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">比值（</t>
     </r>
@@ -407,6 +432,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -421,9 +447,6 @@
     <t xml:space="preserve">医疗服务收入三年复合增长率</t>
   </si>
   <si>
-    <t xml:space="preserve">医服收入</t>
-  </si>
-  <si>
     <t xml:space="preserve">医疗服务收入占全院比重</t>
   </si>
   <si>
@@ -437,9 +460,6 @@
   </si>
   <si>
     <t xml:space="preserve">医院住院医师首次参加医师资格考试通过率</t>
-  </si>
-  <si>
-    <t xml:space="preserve">人才培养</t>
   </si>
   <si>
     <t xml:space="preserve">国家卫生健康委</t>
@@ -454,6 +474,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">百分比（</t>
     </r>
@@ -473,6 +494,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）、人、篇、比值（</t>
     </r>
@@ -492,6 +514,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">）</t>
     </r>
@@ -503,9 +526,6 @@
     <t xml:space="preserve">博士研究生导师占比</t>
   </si>
   <si>
-    <t xml:space="preserve">地位影响</t>
-  </si>
-  <si>
     <t xml:space="preserve">国家组织药品集中采购中标药品金额占比</t>
   </si>
   <si>
@@ -525,9 +545,6 @@
   </si>
   <si>
     <t xml:space="preserve">平均住院日</t>
-  </si>
-  <si>
-    <t xml:space="preserve">服务流程</t>
   </si>
   <si>
     <t xml:space="preserve">天</t>
@@ -542,6 +559,7 @@
         <color rgb="FF000000"/>
         <rFont val="PingFang SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">抗菌药物使用强度</t>
     </r>
@@ -715,6 +733,7 @@
       <color rgb="FF000000"/>
       <name val="PingFang SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -785,13 +804,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:A1048576"/>
+  <dimension ref="A1:B1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="0" width="7"/>
@@ -801,25 +820,40 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -860,25 +894,230 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="1" style="0" width="9"/>
+  </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -897,11 +1136,11 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J2" activeCellId="0" sqref="J2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4921875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="9"/>
@@ -911,2355 +1150,2355 @@
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>0</v>
-      </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="17.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0.618</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.382</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J7" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J8" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J9" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J10" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J11" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J12" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G13" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="H13" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J13" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I14" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J14" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I15" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J15" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I16" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J16" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I17" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J17" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I18" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J18" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I19" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J19" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I20" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J20" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I21" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J21" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I22" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J22" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I23" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J23" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E24" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I24" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J24" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I25" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J25" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I26" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J26" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I27" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J27" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H28" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I28" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J28" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H29" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I29" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J29" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H30" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I30" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J30" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H31" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I31" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J31" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>0.382</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H32" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I32" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J32" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>0.618</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>75</v>
+        <v>16</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H33" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I33" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J33" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H34" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I34" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J34" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H35" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I35" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J35" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H36" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I36" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J36" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H37" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I37" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J37" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H38" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I38" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J38" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F39" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H39" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I39" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J39" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H41" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I41" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J41" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H42" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I42" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J42" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F43" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H43" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I43" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J43" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H45" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I45" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J45" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F46" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H46" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I46" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J46" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F47" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H47" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I47" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J47" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H48" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I48" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J48" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H49" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I49" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J49" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H50" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I50" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J50" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H51" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I51" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J51" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F52" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="C52" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>104</v>
-      </c>
       <c r="G52" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H52" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I52" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J52" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H53" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I53" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J53" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H54" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I54" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J54" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H55" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I55" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J55" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H56" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I56" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J56" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H57" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I57" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J57" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H58" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I58" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J58" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H59" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I59" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J59" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H60" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I60" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J60" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H61" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I61" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J61" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H62" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I62" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J62" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G63" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="C63" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F63" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G63" s="1" t="s">
-        <v>117</v>
-      </c>
       <c r="H63" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I63" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J63" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H65" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I65" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J65" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H66" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I66" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J66" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H68" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I68" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J68" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H69" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I69" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J69" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H70" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I70" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J70" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H71" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I71" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J71" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F72" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G72" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="H72" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I72" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J72" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H73" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I73" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J73" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F74" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H74" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I74" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J74" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H75" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I75" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J75" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>57</v>
+        <v>10</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H76" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I76" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J76" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H77" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I77" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J77" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F78" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G78" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H78" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="I78" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="J78" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="H79" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I79" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="J79" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H80" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I80" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J80" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H81" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I81" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J81" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>87</v>
+        <v>17</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="F83" s="1" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="H83" s="0" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="I83" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="J83" s="0" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/cases/goodhostpital2021/维度导向库.xlsx
+++ b/cases/goodhostpital2021/维度导向库.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="一级指标设置" sheetId="1" state="visible" r:id="rId2"/>
@@ -894,10 +894,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C1048576"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A14" activeCellId="0" sqref="A14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D13" activeCellId="0" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -907,217 +907,147 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="0" t="n">
         <v>0.1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
       <c r="C3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="0" t="n">
         <v>0.15</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
+      <c r="A5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="0" t="n">
         <v>0.2</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="0" t="n">
         <v>0.3</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
       <c r="C6" s="1" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
+      <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="0" t="n">
         <v>0.3</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
+      <c r="A8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="0" t="n">
         <v>0.3</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="n">
+      <c r="A9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="0" t="n">
         <v>0.4</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="n">
+      <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="0" t="n">
         <v>0.5</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>16</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="n">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="0" t="n">
         <v>0.5</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="n">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="0" t="n">
         <v>0.5</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="n">
+      <c r="A13" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="0" t="n">
         <v>0.5</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1136,7 +1066,7 @@
   </sheetPr>
   <dimension ref="A1:J83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
